--- a/DSFINAL450.xlsx
+++ b/DSFINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="479">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1461,6 +1461,9 @@
   </si>
   <si>
     <t>Yes, Similar to knapsack</t>
+  </si>
+  <si>
+    <t>Yyyes, Try more</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1885,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1892,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C411" sqref="C411"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="C361" sqref="C361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -5681,7 +5684,7 @@
         <v>349</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>4</v>
+        <v>478</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">

--- a/DSFINAL450.xlsx
+++ b/DSFINAL450.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="483">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1464,6 +1464,18 @@
   </si>
   <si>
     <t>Yyyes, Try more</t>
+  </si>
+  <si>
+    <t>you, yes</t>
+  </si>
+  <si>
+    <t>You,yes</t>
+  </si>
+  <si>
+    <t>You yes</t>
+  </si>
+  <si>
+    <t>123. Best Time to Buy and Sell Stock III</t>
   </si>
 </sst>
 </file>
@@ -1893,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="C361" sqref="C361"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="C242" sqref="C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -1904,6 +1916,7 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="122.8984375" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="33.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6">
@@ -2050,10 +2063,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2064,7 +2077,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2075,7 +2088,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21">
+    <row r="19" spans="1:4" ht="21">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2083,10 +2096,10 @@
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="21">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="21">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2097,7 +2110,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2108,7 +2121,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2119,7 +2132,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21">
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2130,7 +2143,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21">
+    <row r="24" spans="1:4" ht="21">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2141,7 +2154,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row r="25" spans="1:4" ht="21">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2152,7 +2165,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" spans="1:4" ht="21">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2160,10 +2173,10 @@
         <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="21">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2174,7 +2187,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2185,7 +2198,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row r="29" spans="1:4" ht="21">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2196,7 +2209,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2207,7 +2220,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2217,8 +2230,11 @@
       <c r="C31" s="4" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="21">
+      <c r="D31" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2270,7 +2286,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21">
@@ -2349,7 +2365,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
@@ -2360,7 +2376,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
@@ -2382,7 +2398,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
@@ -4387,7 +4403,7 @@
         <v>231</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="21">
@@ -4398,7 +4414,7 @@
         <v>232</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="21">
@@ -4431,7 +4447,7 @@
         <v>235</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="21">
@@ -6864,7 +6880,7 @@
         <v>454</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
@@ -6875,7 +6891,7 @@
         <v>455</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="21">
@@ -6886,7 +6902,7 @@
         <v>456</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="21">
@@ -7416,5 +7432,6 @@
     <hyperlink ref="B2" r:id="rId446"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>